--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/43_Karabük_2020.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/43_Karabük_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB7E1375-642D-4889-B837-481287FF3EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3788267E-342B-45F9-9376-750F6BCB266D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="694" xr2:uid="{459B2515-8755-4801-BF63-85D013A7B482}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="694" xr2:uid="{F370350F-1EFA-4974-B845-9149E597466A}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -965,14 +965,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{83469181-B1EE-470A-BC0C-50C7440F6399}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{A1F36C57-D16A-4555-B946-C483248AB497}"/>
-    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{341DE1F1-B35B-4D25-A88A-DF6A712E2EB1}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{A19D58AF-5764-4E2C-B837-98C1D81038AF}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{C6E06060-3274-444E-8E9C-1F333BC66B5A}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{C76A0565-9FCE-4BA7-BFE1-D73C304B4E1D}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{0F471161-7EC3-4990-899F-2FB1FE6511DF}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{C923DCD4-370D-4AE6-99C1-D29A601FFB3F}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{9913327E-A79C-439D-AEE7-A0B0E2E24A3D}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{8E14BED5-90FA-4162-8138-441CF868C534}"/>
+    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{65E761C2-48EE-4757-9557-00915285B65D}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{35F330AD-0813-4B84-82EF-F6A5DF983576}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{25FEF3E5-D1B8-49CC-AE2E-FCB49216970D}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{160E58B3-F059-4CA6-9D55-7C64EF850B10}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{6179AC39-E2B0-4C32-9AFC-7C8111AD6AA7}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{E502D0FB-4306-4645-A94B-D8D360BD8FE5}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1342,7 +1342,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2378B7CE-4B40-4A74-B97B-CC3E45954ED8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C76B9315-AD88-4113-A57B-DBD441DAF935}">
   <dimension ref="A2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2630,18 +2630,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{25154E5E-01A8-4083-A9F5-65F5C3E39993}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{69E38D64-2FAF-4558-848F-D408EE757175}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A0166427-8598-4117-8A93-809511889BD8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AC5B3EEC-33D9-44A5-92D3-11E2880B6051}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{C541879C-046B-4CE2-950B-2E12BF7A5C72}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BD397801-D891-4C3C-B08A-EDFEC54B430B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D35F7D2A-8DDB-4D77-91E2-4F5E1370AE27}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A2FC9E6E-DEC9-4433-ADF6-F739BBFECD17}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{41C288F0-EA20-442C-9DA3-6B83CA07DD1E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{089AD638-5A07-4B79-8E55-51EF8A861C79}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0A5C756A-F838-48F7-AD0E-95A72C57AB06}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C7D4C1AA-813B-485A-9B2E-8A920252C655}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{692671EE-D1A2-46E8-A4DA-C5B4518D7B83}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7CAC57EE-4EA5-440D-8802-EA6434B2FB57}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C116849F-A3F5-4343-A815-8316B5936F91}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{91CC8C05-AF3A-4B67-929B-89D48A982B08}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{14643945-ED59-4F71-8351-A95A3D04A7E1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E75C3514-319E-45ED-A930-2B5628952D08}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AF4D99D3-DBFB-4A28-95AB-803F5D01E344}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D9AF243B-C7EB-46D2-89D1-A70E0CE53518}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FE928411-4628-4DC3-AE0C-1778DE0AEBF5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8A6AA6B0-7C4F-424F-8A10-42B21551F620}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CFF47EF5-AB46-42BB-B638-1B1E3B583F0A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3D97FA31-EC4F-433A-A61E-F34DF795FA22}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2654,7 +2654,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{116E1CA0-91AA-456A-9414-64C658FAC90F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F89912C1-9524-40BC-83E7-217426B05929}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3925,17 +3925,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9D89CBA6-6EEC-4BBC-A5C6-79F85607FD1E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2AA0B778-6F1F-49A4-9F9D-AE68CAF10851}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7F6D8A9C-A520-48F0-9CE9-11B9A5BC1450}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{637A1708-3645-4D62-901C-4B15F73E8676}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{993E0ADB-5434-4D3E-A011-168D9423F333}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4CE56F1D-65EA-408A-AAA9-E933D5044871}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9A8B5A8E-C2D0-4641-9BFD-E5AED3B8D97C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6E99ACA1-E7FC-44B6-895C-CF3BA3324859}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B7974DAB-2223-4A65-B303-7DD8FA878ACF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{569767F8-D2C4-42C2-B48D-78EB7521A52B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B1F2DD92-43B3-4227-9FB0-05FD0EE60D13}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{691CBDCD-2B49-4B6D-98C5-E0A6B36F14E2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C35F1F5D-8FEE-4E43-815E-E262899370D5}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{38196FB8-CD8C-4DD4-967C-D20E311C6D81}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DE525EA1-10F1-45AB-A75C-BB7BB81770DA}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{718B7D98-C9EA-4714-81E0-5D677D6659AF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{893597F4-03AE-406F-9E1D-96483DFCBDB5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3885DC3A-79F5-4D07-B904-BCB7BF722836}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EA8F6367-5ABC-45F0-A26A-740C53190C08}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EEB41851-979E-4780-9A3B-EE55E850EBB3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CE7EE2E7-63E5-4579-8C90-77A1ABBB8F5A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D3EBE02B-CEDA-45A6-9007-FD785F3F444D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3948,7 +3948,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43EF4E44-46E7-4B1B-B63A-075307285B8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B06642C2-D240-4892-9DF2-29A5D936AD41}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5219,17 +5219,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{34B5C512-0C7E-465A-BDA4-F50D0F41412A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C426B23C-74D5-492A-9109-E1C7D6711DD2}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8A117AE8-9A46-4220-ADE8-8CC6CC02BFD5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{26D21ED0-E391-46CD-A33B-FE586C1F072B}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{C844A4FC-BBDB-4975-B72F-801B2275878F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FD708A32-19B9-48A2-A993-36F0BCC465F0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{38406B90-FD52-4B6A-A890-2A48C12D0CFA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A0B9FBF9-284C-4DB8-AE96-DE4B7017F716}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D67579A4-ECD4-4F62-A4BB-D5792EAF175A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A3A21BF8-72BA-4473-8490-DDB1995DFF6D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{02B4E833-195F-4AC3-96D6-57D4BFDCD347}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3AFEF94C-11F5-4906-A171-7FB638C054F6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B4F48D93-961D-4D1D-B67E-01794C9E0078}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{32578D81-E556-4130-9DA1-740756E47787}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DA5A9996-40AC-41D2-A639-DEEA50B1FC22}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{352F7DF4-90A0-436E-8D08-2BD3590E1E2F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F5475741-97ED-488C-83A1-62E70D3BB785}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{660AA6E2-828F-4736-B67E-FC8670124A33}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{417ECB24-ECE4-45EA-9FCC-4DC0AEEB4BCB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8A931A62-8439-4989-A34A-7CD0D5EEBA96}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{43F85C52-E473-4FF1-8343-B44B9B45B5AC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{296840EA-633F-4BC3-8D3E-3676D4ADAFEE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5242,7 +5242,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C803817E-E664-4BA7-87F6-540310324BDF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA8C92B7-38FD-4C19-B953-78E12235E8C0}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6509,17 +6509,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{133A243D-167C-49CD-AA58-42795BBA4CD5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3E5C31BC-2269-4008-98CE-1E0CC39739A7}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1B8FE259-A2BA-487C-A2FB-C8358C1FF6AA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{54DAA70F-2C6B-4459-99DF-E470DC97496F}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{1C09521C-DDC6-4D54-80C3-849064295D16}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EE305F03-F941-4811-B90C-0185D98C1FA1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{51C1180B-C6AF-4DDC-9EE9-D43F467336D0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2367AA45-8897-449E-A39F-6A92AD556F51}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{44D5687A-5B03-4BA4-8763-B460190FEB85}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F47AA176-0820-4516-B737-FD3953FD8F56}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9C961B74-8C77-44FD-88A0-D00C29071621}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D556249E-EC71-43CC-9D4C-2B617BB6DD95}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B5ECDE47-1FA4-44BD-B251-A1E262A1EDD3}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{46CB9099-3134-47C3-8903-2242165CB487}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C2991F06-C9B2-42A9-8DC7-26EC9B93C801}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{C1A12298-E410-4670-B822-E35F81416988}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{606EACF0-90D3-43DB-96A4-2865C8E56776}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0BD1C764-18FE-492E-9B68-B8F1B62E7958}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CB421C02-27AA-400E-AFE8-EFB145A32521}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{13444F36-7581-4CB7-B001-81FAE6BD58D8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C07AAF16-2072-48F3-AFE2-6C78AB67B44B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AC1AEDD3-42FD-4F3E-98C8-8081A3354A06}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6532,7 +6532,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{195756DA-81A0-49FF-B1B0-FDD0E9E7C436}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20B09B77-EF6F-4309-BE28-C7CF798CBB2F}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7817,18 +7817,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AF2B5428-F345-4902-ACE9-6CF2D8B06FD1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{08D8BB1F-A3D1-40F1-A8E1-83CA467DC332}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7F0F1667-BC4A-45F8-811E-3039CEDC8515}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D82219F5-CBCE-4A93-AD87-16E6921502C8}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{3D50A643-CC19-4E42-805D-89EC09D9C7D9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F589F018-8C1F-4A76-9745-B88F2D42A531}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{04556CB4-4286-419D-AC15-371805943C8C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{07D5DB9A-993A-44D6-9076-B760D4D41839}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6C284A54-1ECC-45F2-8B51-4A1239D13206}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{86CDAE0F-4769-43A6-9163-21C50AFC6951}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C77F896B-4E6A-43C7-AA36-0DDE259B3F8D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{72EF78D4-02AD-4884-8D7C-6C78CBBF413B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{990FE8C8-70F4-4750-A627-9D102093F31B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6713D894-317A-4D9D-8211-093F97A7E130}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C235511B-4242-49D2-8D6E-B5017130062E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{878C9545-C9D6-4ED0-AE49-F58BB55C8859}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{A1A890C8-198B-4E94-AD8C-986CC13E44AE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F6791F7F-2760-4F0D-9D18-A4DC6795A492}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5D21A556-0D5A-4716-9B59-6AC616563CA2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{40C522FB-976D-4298-B353-424FD2D39689}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D0938CD9-EE5C-42CB-827C-164BBA00ED02}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1233C778-2AEB-4BB4-A967-425A9202EE8D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{61B77B61-A833-4BA0-AE36-DD211005D7E4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BB5A2A63-46FD-4C31-A194-8620177F6AE9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7841,7 +7841,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{559529BA-1C19-487F-AC92-E9E9FDCF7416}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE34329-BC21-459B-966B-A5878DA1C5D7}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9126,18 +9126,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{363E251A-2A65-4BF2-ABED-945C61F37AE9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E2F54D1D-C209-4EA4-B42A-CBFD9D66CBF2}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6743332E-2493-442B-B425-5BEC4B35A6D4}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9DC8D6C2-878E-4ABE-84EE-049A44115CCF}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{95D2B32F-B28A-465F-8FE6-1D10CCF6FA9F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AAD17647-5F53-4CEA-A507-A2072260B1DD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9176A09C-B681-42F0-94C5-D6669BB10ED8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0A1D71C1-141C-4B83-9884-9C8192A6F9CC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{169181F4-0F7C-4447-96A7-2AA14C42E590}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DDC1FAC6-02D7-4D51-8923-038819FD1C9E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6AC520A1-396B-4BBA-9289-72ED6B000C3E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5E53264D-5915-4213-9F70-6713151FE777}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3C7F0622-E15C-4AD5-8D40-9EE08CD3D2E3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D8AA886C-ED07-40EF-BF43-2067BCB8C3BD}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A1FCE36D-4D8A-4BA1-A462-FE9A34C34398}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8E88F1EA-A631-4F32-B161-CB1A44A57435}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{D4C18575-6F85-4BF8-AAB3-BF74A1BF42C6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4C1FB390-7DEA-4EB6-9328-9261194A63EC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D456AD90-2CF3-4B5D-BDCE-8D0BD6E28C85}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7CEF648D-C449-40C8-88B4-3C9ADAC019E9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{60B722BF-61EF-4658-9DD5-F37EACB930D1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0BF15919-0241-488F-9197-1520638445F3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AD5D2296-5803-45DA-8C85-BFD33EF0BC4E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D75AE986-5BAB-4103-9BDD-1E199AC6B8A5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9150,7 +9150,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D4CC28-F45C-4FBD-B690-FD1DDD29B4B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E184A011-9AA1-4F14-9F71-E472651167AF}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10435,18 +10435,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{54EF6D63-55FD-4E6E-8967-D6FECD2EF140}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F82DCA26-CC8F-4661-82F8-AEAD937151FB}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{884996FC-89B0-4ED4-8092-80E64D27CC46}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8C607125-1CD2-47E6-A3EB-05BD4EF3480E}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{5D3E17D0-BB03-4F28-A2F7-7BB125418F12}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7D4BBC0A-845E-4F6A-8013-392EBA37076A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{53BE016B-ED87-4732-925C-69BD8B08D93D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DB853EF4-77F8-4872-BFF6-7FCD0F0A0F0A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{58A149A7-F870-427C-B90C-525DB2D2E101}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9DE4F745-16D5-41F4-A3A7-E806E471769F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{35F46294-1731-4084-B2F1-45848DED40A3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{09E3EE9D-DA7E-4F93-BF2F-A3696645AC30}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{361AAC92-2B37-43D5-A9ED-00E9874B9FF0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{32B2CA11-2931-4BA4-B23E-B109CF550CF6}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B5C716DE-5570-49B3-B191-6FBEAD31F3FC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E79C5734-BC06-40CF-A2A2-EFA19F70F32E}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{A3B8C0DE-5F7B-4853-B86E-6060BFED5C79}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FDC1021D-C3D1-4ACF-888E-2DD48C656132}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F99207D3-340F-4020-9556-C0B4BA51DC23}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{36ABC194-4694-4AF2-8C67-4D05FFB28304}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1B713172-95A5-4049-B7B2-B5ADFDAED258}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{05BA04B1-96A4-436C-8EDD-CC74CC3A3A62}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{10457C4C-AE6A-45DC-82E9-F2DA3B994010}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D94B53F5-EF7F-4394-B61A-6A8E3590C0F6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10459,7 +10459,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FADEBC-AB24-45E3-874C-947E6A86AEFA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEDC44D2-7BE6-4CF1-81DB-076F276147CC}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11744,18 +11744,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B7701CE4-830A-4518-B06B-96BCE3097C72}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C1C0B380-3D26-4C58-B9B3-1437281BD9FA}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6B33C76C-0E9F-4B88-AB73-F028C84F5035}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9E43DFE9-D667-4EF9-BBB9-AB67CD91F3FB}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{36ABD1F3-5FF2-4BBA-A763-172A53050FDF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2C92DDAC-07BD-4FE2-87A1-0AA4EB27F059}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E0B8FBFF-CA67-4E92-9BDF-9502ADA94EB8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B1D08B5F-00B9-454D-8A01-BE61D087B058}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E07016F2-5BB6-4157-B44B-B936D4A6B939}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6421E578-1AC3-47A5-98A8-5F5931F1C681}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CF98523B-3002-4A53-B884-0200983C5354}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E8DDB410-B879-46B3-961E-C56F4E35E2AA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{538D338F-6389-49AF-A8F6-365222F1BC0F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EFDC93FF-4115-49D4-8C53-CAD63C87C792}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{691A7DBD-BAD2-4C8D-A5D9-84500877F38D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{84E71966-5628-4F2C-94D2-F8F596038283}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{F37FF37D-ADB6-4468-8F37-2536DB7B6F24}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7BD1AA15-D6F9-4474-8223-23EEA2A915D7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A6085285-B209-4722-9E73-D6ED4F892823}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8E3638D0-B0FC-46AE-B7A6-139207517DCC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E4E34801-ED9A-4B2B-B15D-B9C9B27AD260}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4BBBEBF7-F17C-47AC-9C30-6D83AA260A6E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{02170818-7AFA-4188-A256-7BFA81291E4C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FC8F4634-CF6F-46F6-B8D4-584498EA2C30}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11768,7 +11768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5AC4DD6-65EC-4CDE-B764-3E4CB820FCE9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C650DDB-F2BE-40F8-A038-89E0C3F9D7C1}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13051,17 +13051,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8BBA637D-B3AB-4965-B5AC-F09458A1A37E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{51B282CC-6582-4D0A-89F9-5EAB3EC5E832}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{97EF9C65-56EF-4740-9E0D-07CC2A264249}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2043F214-EDF1-4B28-BB35-EABAB19F5CF8}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{AF40968C-2BA9-4126-9EC6-203EC7F308AA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2051CDA6-8583-4C99-8BB2-E3EFC1C1E409}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A07A2826-BF6B-4936-A167-D89E98023E7D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{901E3C00-F33A-45E9-B847-0202D76FFA08}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AA1B7313-FF41-4370-9A9E-ECDBDC14168A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DB8C1B95-0A0D-46E1-9F0D-48981B7B2F69}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0AF3F9BD-4FE5-4FCD-8398-0D439A010BA0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0B55FF9B-EDB4-42C5-AA31-8B6CEE790906}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{37C29635-87B0-40B7-A5C0-74234089ABF5}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C2B47CC2-09F1-416C-BED4-A8148490B684}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9168CCA6-85A5-446A-A273-4A54454A3F43}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{93930AF5-9DDC-4AFF-8895-7C5807912A1C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2ADEDBE7-4700-43AD-BC15-B2439127016E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{91CF21FF-6EB1-49EA-AC72-548527E330E2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3E2CFA34-6A51-460D-91B3-FA4DA00C1C7F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{34615013-6B89-497F-93E9-9792D3871EB1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{77A28637-BEB1-4BF5-AA73-2BE44AB02582}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{28867F0D-BEEF-4DFF-BA61-CB87AD5B9F77}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13074,7 +13074,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BFEDBE-47C8-4271-8DAE-5669CC67B40C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{073F57E3-5A0F-4CEF-997C-C72542A7C263}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14357,17 +14357,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8E9D5C35-76A1-48F4-9813-B191C90D196D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CF9FE583-D0CE-49F3-8F40-0498D167665A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4B340794-3979-4B83-9250-A931CDFB041B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7B479E8C-4C38-47D5-AEA2-06277275CD0B}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{298C026A-BCEA-44AA-8CAF-38DEB77E6F24}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5739F45A-96A1-41A5-B6CC-7D956D2436ED}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{032E6061-1DCA-41E3-9B74-2908EE601709}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{11AB72D0-63FF-425F-BC23-3C33F583F0D7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CEB0A311-19A3-4248-8E46-BBE6232841D4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DD65CD27-0D9A-4ED5-9B46-F783E3ECE3C8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8DC48B33-C231-4BC1-B90B-F356F80D3A14}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FB2F3B61-63F5-4679-B597-FFA345901E4A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7ED22E7F-5239-47FC-B54D-09ECE84D95D0}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B8C49ACC-0F7D-4767-8378-49DF4C540B75}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1342AC1D-BC9C-4203-93FE-76005E779011}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{F4043A47-BCFD-4F21-A24B-032437B20ADF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CE84E046-8F8F-46C6-8325-971236B4705B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BA52BAEF-2AB7-4E94-ABA3-C12E74F78DE6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{50D348F4-3E3F-4E6C-B0BF-47A6746AA0B5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AD8CC7D8-20F1-4217-9FE1-78A7EDFB7E08}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D26607C5-A53E-4FA6-BFE6-36D123D332CB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{69E12830-EC75-49EB-8930-B20940DF4509}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14380,7 +14380,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFA31363-2479-43B8-A5DE-77D53B7E0512}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{462AB487-7212-4801-9ACE-B07FF14B5057}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15663,17 +15663,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D3376373-A619-4074-9923-49A06A700CB2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D5C001CB-32A1-4781-BF1F-0077980ED9F2}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5CD1C66C-972B-4BAF-98D5-C5CB5C8181A8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C31DA6FB-B3D4-4303-918C-A62814944481}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{EC4A2F61-E497-4CE0-B9D1-FA3A147BDB34}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A43C1953-B11E-4E2A-A952-C20144CBFF17}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AD56701C-C38A-4436-958E-66C309D0BEC7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9D3B3B7F-75FE-4446-A31E-E3FCF27A3A14}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{69D15680-809C-4486-9828-549A64943458}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{346FBEFA-885F-407F-9221-5EC381891740}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{76310F24-E8F2-4C6D-ACB4-468807258C2F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{115DA52F-C468-449A-ADF3-3AA51DDE1911}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FBB7060D-EF87-4B52-9C8F-F9D067C277DD}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{20BCEDE7-7909-4808-83B5-8E2C4EE776F1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{68EBD053-4E82-4DC8-8AA0-EA250A623361}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{993B1721-FA07-4B74-9A01-7969BA18B761}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FE145838-6BCB-439E-A6EF-EAB5E37F8894}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4F5C7FBE-C693-4986-8AD8-5F3084122E79}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1EAAE6BB-B999-4A96-A621-FA6359D44FA7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7F9FD920-E44A-42C5-9A71-DDBBB5F17904}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DB8357DD-8C39-48BF-BF1A-5644E874E1C7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{35584977-C748-4188-B7BF-00314BC304F5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15686,7 +15686,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD53DCDD-5ED5-45C2-BD44-1B6B4A1869A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{157A1B53-ED67-4B45-B8C7-E30EC07399E6}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16965,17 +16965,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C4E93427-C687-409C-92BE-5AAB52D083BA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AFD16C21-D573-47D2-AF79-04617459224B}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BA2C094D-CD3C-4A42-A877-686DA7165F7F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DAA43287-2684-453D-B9FA-7EA6A4103625}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{FCD38818-566C-4774-BC03-EEF3CE85A9A4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{81EB4CBD-6628-4F28-BA76-59ECE298BB48}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{076898BE-758A-43A4-BC7C-BD2394054BDC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C611D7E5-DF7F-42F0-B8D3-8C278A21DE14}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A8FC0C0B-A107-45A1-9B3E-5E8DD47CB3C3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{12756CC0-0B7B-4211-A67E-4F9D76D83A82}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F7AB3526-7FE3-46F5-AA91-B9B012B8182B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8E30668D-826C-4130-B16C-FCEB5324FEB2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1876DF68-58CD-4A7A-B413-4B34D3490D52}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BFFE487E-8B85-4C4A-86EE-81046FE47988}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5B78F6A8-5B71-421F-B6A4-3FBAC8109A4F}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{897652F8-C108-4B1D-A896-A8D02ABECD6E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FE06726D-54CB-49DC-9F72-F7BD89CCC2B2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{ACC6526D-5585-4950-AEC5-A96F39233611}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F8CF11AA-3CA0-4840-88A2-7CC4B35938D8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4918CDDD-2F88-467A-9DDB-7149717C017D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D315F5F5-B903-4969-9FE9-EBECAB28C37D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1E163B1A-CEA9-47EF-A98A-81043E3E2955}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
